--- a/AAII_Financials/Quarterly/SKBSY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SKBSY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="92">
   <si>
     <t>SKBSY</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -715,23 +715,23 @@
       <c r="D8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -870,26 +870,26 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -899,26 +899,26 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -938,26 +938,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -970,23 +970,23 @@
       <c r="D18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1012,23 +1012,23 @@
       <c r="D20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1067,26 +1067,26 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1096,26 +1096,26 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1125,26 +1125,26 @@
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1183,26 +1183,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1212,26 +1212,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1270,26 +1270,26 @@
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>3</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>3</v>
@@ -1360,23 +1360,23 @@
       <c r="D32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1386,26 +1386,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1444,26 +1444,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1533,26 +1533,26 @@
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
+      <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
       </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
@@ -1562,26 +1562,26 @@
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
       </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
@@ -1591,26 +1591,26 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
@@ -1620,26 +1620,26 @@
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>3</v>
+      <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>3</v>
@@ -1649,26 +1649,26 @@
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
@@ -1678,26 +1678,26 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
       </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
@@ -1707,26 +1707,26 @@
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
@@ -1736,26 +1736,26 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
@@ -1765,26 +1765,26 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -1852,26 +1852,26 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -1910,26 +1910,26 @@
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
+      <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
       </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
@@ -1965,26 +1965,26 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
@@ -1994,26 +1994,26 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>0</v>
+      </c>
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
@@ -2023,26 +2023,26 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
@@ -2052,26 +2052,26 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>0</v>
+      </c>
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
       </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
@@ -2110,26 +2110,26 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
@@ -2226,26 +2226,26 @@
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
+      <c r="D66" s="3">
+        <v>0</v>
+      </c>
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+      <c r="H66" s="3">
+        <v>0</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
       </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
@@ -2326,26 +2326,26 @@
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>3</v>
+      <c r="D70" s="3">
+        <v>0</v>
+      </c>
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
       </c>
       <c r="K70" s="3" t="s">
         <v>3</v>
@@ -2384,26 +2384,26 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>0</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
@@ -2500,26 +2500,26 @@
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>0</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
       </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
@@ -2592,26 +2592,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
+        <v>0</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2634,26 +2634,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2808,26 +2808,26 @@
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -2850,26 +2850,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -2937,26 +2937,26 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3095,26 +3095,26 @@
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3124,26 +3124,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3153,26 +3153,26 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
